--- a/data/trans_camb/P2404-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2404-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2404-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2404-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 2,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 3,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 0,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 0,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 1,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 1,42</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,88%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,84; 67,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,76; 85,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,96; 52,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,76; 36,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,41; 38,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,76; 43,98</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 4,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 1,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; -0,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 1,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 0,82</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,89%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; 117,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,18; 34,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -31,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,61; 88,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,58; 46,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,56; 30,11</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 3,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 1,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 1,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 1,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 1,92</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>176,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>148,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>250,2%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,93; 578,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,76; 817,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,39; 797,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,77; 1091,95</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 4,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 0,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; -0,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 1,81</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>304,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,37%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,65; 1548,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 53,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,96; 470,81</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 0,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 0,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 0,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 0,75</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-2,14%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-7,01%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,17%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 1,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; -0,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 0,41</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,25%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,25%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,82%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,99; 47,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,45; 53,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,48; -9,29</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,26; 23,44</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,24; 17,88</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,92; 30,12</t>
         </is>
       </c>
     </row>
